--- a/src/ru/research.xlsx
+++ b/src/ru/research.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19155" windowHeight="12810"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="19155" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="532">
   <si>
     <t>Gen</t>
   </si>
@@ -1474,6 +1474,144 @@
   </si>
   <si>
     <t>ERV in-text</t>
+  </si>
+  <si>
+    <t>Нач</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Иешуа</t>
+  </si>
+  <si>
+    <t>Иеш</t>
+  </si>
+  <si>
+    <t>Судьи</t>
+  </si>
+  <si>
+    <t>Рут</t>
+  </si>
+  <si>
+    <t>1 Лет</t>
+  </si>
+  <si>
+    <t>1 Летопись</t>
+  </si>
+  <si>
+    <t>2 Летопись</t>
+  </si>
+  <si>
+    <t>2 Лет</t>
+  </si>
+  <si>
+    <t>Узайр</t>
+  </si>
+  <si>
+    <t>Аюб</t>
+  </si>
+  <si>
+    <t>Забур</t>
+  </si>
+  <si>
+    <t>Заб</t>
+  </si>
+  <si>
+    <t>Мудр</t>
+  </si>
+  <si>
+    <t>Мудрые изречения</t>
+  </si>
+  <si>
+    <t>Разм</t>
+  </si>
+  <si>
+    <t>Размышления</t>
+  </si>
+  <si>
+    <t>Песнь</t>
+  </si>
+  <si>
+    <t>Песнь Сулеймана</t>
+  </si>
+  <si>
+    <t>Езек</t>
+  </si>
+  <si>
+    <t>Езекиил</t>
+  </si>
+  <si>
+    <t>Даниял</t>
+  </si>
+  <si>
+    <t>Дон</t>
+  </si>
+  <si>
+    <t>Ам</t>
+  </si>
+  <si>
+    <t>Авдий</t>
+  </si>
+  <si>
+    <t>Юнус</t>
+  </si>
+  <si>
+    <t>Закария</t>
+  </si>
+  <si>
+    <t>Зак</t>
+  </si>
+  <si>
+    <t>Мат</t>
+  </si>
+  <si>
+    <t>Матай</t>
+  </si>
+  <si>
+    <t>Марк</t>
+  </si>
+  <si>
+    <t>Лука</t>
+  </si>
+  <si>
+    <t>Иохан</t>
+  </si>
+  <si>
+    <t>Эфесянам</t>
+  </si>
+  <si>
+    <t>Эф</t>
+  </si>
+  <si>
+    <t>Флп</t>
+  </si>
+  <si>
+    <t>1 Тиметею</t>
+  </si>
+  <si>
+    <t>2 Тиметею</t>
+  </si>
+  <si>
+    <t>Якуб</t>
+  </si>
+  <si>
+    <t>1 Петира</t>
+  </si>
+  <si>
+    <t>2 Петира</t>
+  </si>
+  <si>
+    <t>1 Иохана</t>
+  </si>
+  <si>
+    <t>2 Иохана</t>
+  </si>
+  <si>
+    <t>3 Иохана</t>
+  </si>
+  <si>
+    <t>From Biblica</t>
   </si>
 </sst>
 </file>
@@ -1986,11 +2124,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1998,7 +2134,7 @@
     <col min="2" max="6" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>282</v>
@@ -2021,8 +2157,11 @@
       <c r="L1" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P1" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2039,8 +2178,14 @@
         <f>J2=E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2058,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2094,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2129,8 +2274,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2150,8 +2301,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2168,8 +2322,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2187,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2205,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2223,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -2241,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -2258,8 +2415,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2276,8 +2439,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -2300,8 +2469,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -2322,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -2340,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2360,8 +2532,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -2384,8 +2559,14 @@
       <c r="N20" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -2402,8 +2583,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -2420,8 +2607,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -2438,8 +2631,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -2463,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -2484,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -2502,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -2522,8 +2721,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2748,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>509</v>
+      </c>
+      <c r="R28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -2565,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -2586,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -2606,8 +2820,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -2624,8 +2841,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -2645,8 +2865,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -2667,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -2688,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -2709,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -2730,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -2751,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -2771,8 +2994,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -2793,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -2810,8 +3039,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2834,8 +3069,11 @@
       <c r="L42" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -2852,8 +3090,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -2870,8 +3111,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -2886,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -2907,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -2928,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -2949,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -2970,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3234,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3261,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -3033,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
@@ -3054,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -3075,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -3095,8 +3348,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -3116,8 +3372,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
@@ -3138,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -3159,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -3180,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -3197,8 +3456,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -3218,8 +3480,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
@@ -3239,8 +3504,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -3260,8 +3528,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3281,8 +3552,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
@@ -3302,8 +3576,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
@@ -3324,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -3342,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
@@ -3350,7 +3627,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -3358,7 +3635,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
@@ -3366,7 +3643,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -3374,7 +3651,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
@@ -3391,7 +3668,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
@@ -3408,7 +3685,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
@@ -3419,7 +3696,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
@@ -3433,7 +3710,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
@@ -3444,7 +3721,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -3461,7 +3738,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
@@ -3469,7 +3746,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
@@ -3477,7 +3754,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -3661,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
